--- a/resources/promotores_corregido.xlsx
+++ b/resources/promotores_corregido.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auxte\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883A0375-DC67-49FA-83CA-86068D784539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DCEA6C-8862-454B-A937-A8DCA588AD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22350" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotores" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="248">
   <si>
     <t>ID</t>
   </si>
@@ -132,9 +132,6 @@
     <t>TORREON</t>
   </si>
   <si>
-    <t>CORTES JUAREZ CLARA</t>
-  </si>
-  <si>
     <t>CLARA</t>
   </si>
   <si>
@@ -438,9 +435,6 @@
     <t>B1 EDUARDO MEZA</t>
   </si>
   <si>
-    <t>MEZA DONEZ JESUS EDUARDO</t>
-  </si>
-  <si>
     <t>Villas la Rioja</t>
   </si>
   <si>
@@ -456,9 +450,6 @@
     <t>B4 MARIO ALANIS</t>
   </si>
   <si>
-    <t>ALANIS VALADEZ MARIO ALBERTO</t>
-  </si>
-  <si>
     <t>SAMJ810101349</t>
   </si>
   <si>
@@ -486,9 +477,6 @@
     <t>telemarketing@valoracredit.mx</t>
   </si>
   <si>
-    <t>GARCIA GARCIA FLOR ESTHELA</t>
-  </si>
-  <si>
     <t>ALANIS</t>
   </si>
   <si>
@@ -732,9 +720,6 @@
     <t>B5 CHRISTIAN EDUARDO GARCIA</t>
   </si>
   <si>
-    <t>GARCIA MONTOY CHRISTIAN EDUARDO</t>
-  </si>
-  <si>
     <t>DEL RIO</t>
   </si>
   <si>
@@ -759,9 +744,6 @@
     <t>Tu_tiki_tiki@hotmail.com.mx</t>
   </si>
   <si>
-    <t>MORAN LOPEZ MARIA ELENA</t>
-  </si>
-  <si>
     <t>ROVV970710MBCSLN02</t>
   </si>
   <si>
@@ -778,6 +760,27 @@
   </si>
   <si>
     <t>SIN COORDINADOR</t>
+  </si>
+  <si>
+    <t>CLARA CORTES JUAREZ</t>
+  </si>
+  <si>
+    <t>MARIO ALBERTO ALANIS VALDEZ</t>
+  </si>
+  <si>
+    <t>CHRISTIAN EDUARDO GARCIA MONTOY</t>
+  </si>
+  <si>
+    <t>FLOR ESTHELA GARCIA GARCIA</t>
+  </si>
+  <si>
+    <t>MARIA ELENA MORAN LOPEZ</t>
+  </si>
+  <si>
+    <t>JESUS EDUARDO MEZA DONEZ</t>
+  </si>
+  <si>
+    <t>MARIO ALBERTO ALANIS VALADEZ</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,37 +1278,37 @@
         <v>5664</v>
       </c>
       <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" t="s">
         <v>217</v>
       </c>
-      <c r="C2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I2" t="s">
-        <v>189</v>
-      </c>
-      <c r="K2" t="s">
-        <v>221</v>
-      </c>
       <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>37</v>
-      </c>
-      <c r="S2" t="s">
-        <v>38</v>
       </c>
       <c r="T2" t="s">
         <v>30</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1313,16 +1316,16 @@
         <v>5647</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S3" t="s">
         <v>22</v>
@@ -1331,7 +1334,7 @@
         <v>30</v>
       </c>
       <c r="U3" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1339,31 +1342,31 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s">
-        <v>49</v>
-      </c>
       <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" t="s">
         <v>37</v>
-      </c>
-      <c r="S4" t="s">
-        <v>38</v>
       </c>
       <c r="T4" t="s">
         <v>30</v>
       </c>
       <c r="U4" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1371,37 +1374,37 @@
         <v>5663</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" t="s">
         <v>212</v>
       </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G5" t="s">
-        <v>214</v>
-      </c>
-      <c r="I5" t="s">
-        <v>215</v>
-      </c>
-      <c r="K5" t="s">
-        <v>216</v>
-      </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="U5" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1409,49 +1412,49 @@
         <v>5652</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" t="s">
         <v>153</v>
       </c>
-      <c r="E6" t="s">
+      <c r="K6" t="s">
         <v>154</v>
       </c>
-      <c r="G6" t="s">
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" t="s">
         <v>155</v>
       </c>
-      <c r="H6" t="s">
+      <c r="O6" t="s">
         <v>156</v>
       </c>
-      <c r="I6" t="s">
+      <c r="R6" t="s">
         <v>157</v>
       </c>
-      <c r="K6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" t="s">
-        <v>159</v>
-      </c>
-      <c r="O6" t="s">
-        <v>160</v>
-      </c>
-      <c r="R6" t="s">
-        <v>161</v>
-      </c>
       <c r="S6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1459,43 +1462,43 @@
         <v>5667</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" t="s">
         <v>225</v>
       </c>
-      <c r="G7" t="s">
+      <c r="S7" t="s">
+        <v>163</v>
+      </c>
+      <c r="T7" t="s">
         <v>226</v>
       </c>
-      <c r="H7" t="s">
-        <v>227</v>
-      </c>
-      <c r="I7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" t="s">
-        <v>229</v>
-      </c>
-      <c r="S7" t="s">
-        <v>167</v>
-      </c>
-      <c r="T7" t="s">
-        <v>230</v>
-      </c>
       <c r="U7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1503,31 +1506,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>35</v>
       </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
       <c r="L8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" t="s">
         <v>37</v>
-      </c>
-      <c r="S8" t="s">
-        <v>38</v>
       </c>
       <c r="T8" t="s">
         <v>30</v>
       </c>
       <c r="U8" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1535,25 +1538,25 @@
         <v>5503</v>
       </c>
       <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
         <v>104</v>
       </c>
-      <c r="D9" t="s">
-        <v>105</v>
-      </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" t="s">
         <v>37</v>
-      </c>
-      <c r="S9" t="s">
-        <v>38</v>
       </c>
       <c r="T9" t="s">
         <v>30</v>
       </c>
       <c r="U9" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -1561,49 +1564,49 @@
         <v>5603</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" t="s">
         <v>135</v>
       </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" t="s">
+        <v>132</v>
+      </c>
+      <c r="S10" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" t="s">
         <v>136</v>
       </c>
-      <c r="G10" t="s">
-        <v>137</v>
-      </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" t="s">
-        <v>134</v>
-      </c>
-      <c r="S10" t="s">
-        <v>44</v>
-      </c>
-      <c r="T10" t="s">
-        <v>138</v>
-      </c>
       <c r="U10" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1611,25 +1614,25 @@
         <v>5620</v>
       </c>
       <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
         <v>102</v>
       </c>
-      <c r="D11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" t="s">
-        <v>103</v>
-      </c>
       <c r="L11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" t="s">
         <v>37</v>
-      </c>
-      <c r="S11" t="s">
-        <v>38</v>
       </c>
       <c r="T11" t="s">
         <v>30</v>
       </c>
       <c r="U11" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1637,28 +1640,28 @@
         <v>5623</v>
       </c>
       <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
         <v>106</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>107</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>108</v>
       </c>
-      <c r="E12" t="s">
-        <v>109</v>
-      </c>
       <c r="L12" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" t="s">
         <v>37</v>
-      </c>
-      <c r="S12" t="s">
-        <v>38</v>
       </c>
       <c r="T12" t="s">
         <v>30</v>
       </c>
       <c r="U12" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1666,37 +1669,37 @@
         <v>5653</v>
       </c>
       <c r="B13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I13" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" t="s">
         <v>162</v>
       </c>
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="L13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" t="s">
         <v>163</v>
       </c>
-      <c r="G13" t="s">
+      <c r="T13" t="s">
         <v>164</v>
       </c>
-      <c r="I13" t="s">
-        <v>165</v>
-      </c>
-      <c r="K13" t="s">
-        <v>166</v>
-      </c>
-      <c r="L13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S13" t="s">
-        <v>167</v>
-      </c>
-      <c r="T13" t="s">
-        <v>168</v>
-      </c>
       <c r="U13" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1704,49 +1707,49 @@
         <v>5615</v>
       </c>
       <c r="B14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" t="s">
         <v>144</v>
       </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
         <v>145</v>
       </c>
-      <c r="G14" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" t="s">
-        <v>147</v>
-      </c>
-      <c r="I14" t="s">
-        <v>147</v>
-      </c>
-      <c r="J14" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" t="s">
-        <v>148</v>
-      </c>
       <c r="L14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s">
-        <v>149</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1754,37 +1757,37 @@
         <v>5659</v>
       </c>
       <c r="B15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" t="s">
+        <v>190</v>
+      </c>
+      <c r="I15" t="s">
         <v>191</v>
       </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="K15" t="s">
         <v>192</v>
       </c>
-      <c r="E15" t="s">
-        <v>193</v>
-      </c>
-      <c r="G15" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15" t="s">
-        <v>195</v>
-      </c>
-      <c r="K15" t="s">
-        <v>196</v>
-      </c>
       <c r="L15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1792,37 +1795,37 @@
         <v>5661</v>
       </c>
       <c r="B16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" t="s">
+        <v>200</v>
+      </c>
+      <c r="G16" t="s">
+        <v>201</v>
+      </c>
+      <c r="I16" t="s">
         <v>202</v>
       </c>
-      <c r="C16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="K16" t="s">
         <v>203</v>
       </c>
-      <c r="E16" t="s">
-        <v>204</v>
-      </c>
-      <c r="G16" t="s">
-        <v>205</v>
-      </c>
-      <c r="I16" t="s">
-        <v>206</v>
-      </c>
-      <c r="K16" t="s">
-        <v>207</v>
-      </c>
       <c r="L16" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" t="s">
         <v>37</v>
-      </c>
-      <c r="S16" t="s">
-        <v>38</v>
       </c>
       <c r="T16" t="s">
         <v>30</v>
       </c>
       <c r="U16" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -1830,34 +1833,34 @@
         <v>5595</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" t="s">
         <v>129</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>130</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" t="s">
         <v>131</v>
       </c>
-      <c r="L17" t="s">
-        <v>37</v>
-      </c>
-      <c r="S17" t="s">
-        <v>44</v>
-      </c>
-      <c r="T17" t="s">
-        <v>132</v>
-      </c>
       <c r="U17" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -1865,37 +1868,37 @@
         <v>5662</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I18" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U18" t="s">
-        <v>149</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -1903,34 +1906,34 @@
         <v>5665</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="U19" t="s">
-        <v>139</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -1938,37 +1941,37 @@
         <v>5657</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20" t="s">
         <v>37</v>
-      </c>
-      <c r="S20" t="s">
-        <v>38</v>
       </c>
       <c r="T20" t="s">
         <v>30</v>
       </c>
       <c r="U20" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -1976,37 +1979,37 @@
         <v>5658</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U21" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2014,34 +2017,34 @@
         <v>5655</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U22" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -2049,28 +2052,28 @@
         <v>5626</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S23" t="s">
         <v>37</v>
-      </c>
-      <c r="S23" t="s">
-        <v>38</v>
       </c>
       <c r="T23" t="s">
         <v>30</v>
       </c>
       <c r="U23" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2078,28 +2081,28 @@
         <v>5629</v>
       </c>
       <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
         <v>80</v>
       </c>
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
         <v>23</v>
       </c>
       <c r="L24" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24" t="s">
         <v>37</v>
-      </c>
-      <c r="S24" t="s">
-        <v>38</v>
       </c>
       <c r="T24" t="s">
         <v>30</v>
       </c>
       <c r="U24" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -2107,28 +2110,28 @@
         <v>5631</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" t="s">
         <v>113</v>
       </c>
-      <c r="E25" t="s">
-        <v>114</v>
-      </c>
       <c r="L25" t="s">
+        <v>36</v>
+      </c>
+      <c r="S25" t="s">
         <v>37</v>
-      </c>
-      <c r="S25" t="s">
-        <v>38</v>
       </c>
       <c r="T25" t="s">
         <v>30</v>
       </c>
       <c r="U25" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -2136,37 +2139,37 @@
         <v>5660</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" t="s">
+        <v>195</v>
+      </c>
+      <c r="I26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" t="s">
         <v>197</v>
       </c>
-      <c r="E26" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" t="s">
-        <v>199</v>
-      </c>
-      <c r="I26" t="s">
-        <v>200</v>
-      </c>
-      <c r="K26" t="s">
-        <v>201</v>
-      </c>
       <c r="L26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="U26" t="s">
-        <v>139</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -2174,49 +2177,49 @@
         <v>5611</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" t="s">
+        <v>139</v>
+      </c>
+      <c r="I27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" t="s">
+        <v>139</v>
+      </c>
+      <c r="K27" t="s">
         <v>140</v>
       </c>
-      <c r="G27" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" t="s">
-        <v>142</v>
-      </c>
-      <c r="I27" t="s">
-        <v>142</v>
-      </c>
-      <c r="J27" t="s">
-        <v>142</v>
-      </c>
-      <c r="K27" t="s">
-        <v>143</v>
-      </c>
       <c r="L27" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" t="s">
+        <v>120</v>
+      </c>
+      <c r="S27" t="s">
         <v>37</v>
-      </c>
-      <c r="R27" t="s">
-        <v>121</v>
-      </c>
-      <c r="S27" t="s">
-        <v>38</v>
       </c>
       <c r="T27" t="s">
         <v>30</v>
       </c>
       <c r="U27" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -2224,40 +2227,40 @@
         <v>5656</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G28" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I28" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J28" t="s">
         <v>29</v>
       </c>
       <c r="K28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L28" t="s">
+        <v>36</v>
+      </c>
+      <c r="S28" t="s">
         <v>37</v>
-      </c>
-      <c r="S28" t="s">
-        <v>38</v>
       </c>
       <c r="T28" t="s">
         <v>30</v>
       </c>
       <c r="U28" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -2265,40 +2268,40 @@
         <v>5668</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E29" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G29" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H29" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I29" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K29" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S29" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T29" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="U29" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -2306,28 +2309,28 @@
         <v>5650</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="U30" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -2335,46 +2338,46 @@
         <v>5654</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" t="s">
+        <v>167</v>
+      </c>
+      <c r="I31" t="s">
+        <v>168</v>
+      </c>
+      <c r="K31" t="s">
         <v>169</v>
       </c>
-      <c r="D31" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="L31" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" t="s">
         <v>170</v>
       </c>
-      <c r="H31" t="s">
+      <c r="O31" t="s">
         <v>171</v>
       </c>
-      <c r="I31" t="s">
+      <c r="S31" t="s">
+        <v>163</v>
+      </c>
+      <c r="T31" t="s">
         <v>172</v>
       </c>
-      <c r="K31" t="s">
-        <v>173</v>
-      </c>
-      <c r="L31" t="s">
-        <v>37</v>
-      </c>
-      <c r="M31" t="s">
-        <v>174</v>
-      </c>
-      <c r="O31" t="s">
-        <v>175</v>
-      </c>
-      <c r="S31" t="s">
-        <v>167</v>
-      </c>
-      <c r="T31" t="s">
-        <v>176</v>
-      </c>
       <c r="U31" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -2394,16 +2397,16 @@
         <v>28</v>
       </c>
       <c r="L32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S32" t="s">
         <v>37</v>
-      </c>
-      <c r="S32" t="s">
-        <v>38</v>
       </c>
       <c r="T32" t="s">
         <v>30</v>
       </c>
       <c r="U32" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -2411,34 +2414,34 @@
         <v>5669</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G33" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I33" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K33" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S33" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U33" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -2446,22 +2449,22 @@
         <v>2063</v>
       </c>
       <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
         <v>54</v>
       </c>
-      <c r="D34" t="s">
-        <v>55</v>
-      </c>
       <c r="L34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U34" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -2469,19 +2472,19 @@
         <v>5393</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J35" t="s">
         <v>29</v>
       </c>
       <c r="L35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S35" t="s">
         <v>22</v>
@@ -2490,7 +2493,7 @@
         <v>30</v>
       </c>
       <c r="U35" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -2498,34 +2501,34 @@
         <v>5651</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G36" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J36" t="s">
         <v>29</v>
       </c>
       <c r="L36" t="s">
+        <v>36</v>
+      </c>
+      <c r="S36" t="s">
         <v>37</v>
-      </c>
-      <c r="S36" t="s">
-        <v>38</v>
       </c>
       <c r="T36" t="s">
         <v>30</v>
       </c>
       <c r="U36" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -2533,28 +2536,28 @@
         <v>4355</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L37" t="s">
+        <v>36</v>
+      </c>
+      <c r="S37" t="s">
         <v>37</v>
-      </c>
-      <c r="S37" t="s">
-        <v>38</v>
       </c>
       <c r="T37" t="s">
         <v>30</v>
       </c>
       <c r="U37" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -2562,25 +2565,25 @@
         <v>5642</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L38" t="s">
+        <v>36</v>
+      </c>
+      <c r="S38" t="s">
         <v>37</v>
-      </c>
-      <c r="S38" t="s">
-        <v>38</v>
       </c>
       <c r="T38" t="s">
         <v>30</v>
       </c>
       <c r="U38" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -2588,7 +2591,7 @@
         <v>5644</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
         <v>26</v>
@@ -2600,16 +2603,16 @@
         <v>24</v>
       </c>
       <c r="L39" t="s">
+        <v>36</v>
+      </c>
+      <c r="S39" t="s">
         <v>37</v>
-      </c>
-      <c r="S39" t="s">
-        <v>38</v>
       </c>
       <c r="T39" t="s">
         <v>30</v>
       </c>
       <c r="U39" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -2617,37 +2620,37 @@
         <v>5670</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G40" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I40" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K40" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S40" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U40" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2675,47 +2678,47 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
